--- a/template Excel/MKT/KPIMKT.xlsx
+++ b/template Excel/MKT/KPIMKT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\MKT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800BF3A0-2D3F-44DA-A5E9-4C6F8F42D694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F279B5A-4FCF-40CE-BEB9-B93C6955C62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{50E82B85-8429-48D8-9D87-DA8158DD2C5C}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="16440" xr2:uid="{50E82B85-8429-48D8-9D87-DA8158DD2C5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,26 +89,20 @@
     <t>LinkCount</t>
   </si>
   <si>
-    <t>i</t>
+    <t>KPIMKTId</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFCE9178"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <b/>
@@ -172,23 +166,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,17 +513,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74757DA-3F08-42B0-9455-A57C75932243}">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F24:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -552,906 +542,620 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
-        <v>1012</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="B2" s="3">
+        <v>21</v>
+      </c>
+      <c r="C2" s="5">
         <v>45517</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>77</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>96</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>17</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>254</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>57</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <v>5.56</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="3">
         <v>284</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="3">
         <v>89</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="3">
         <v>24</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="3">
         <v>36</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="3">
         <v>3939</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="3">
         <v>24</v>
       </c>
-      <c r="P2" s="4">
+      <c r="P2" s="3">
         <v>9</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="Q2" s="3">
         <v>14</v>
       </c>
-      <c r="R2" s="4">
+      <c r="R2" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
-        <v>1018</v>
-      </c>
-      <c r="C3" s="7">
+      <c r="B3" s="3">
+        <v>22</v>
+      </c>
+      <c r="C3" s="5">
         <v>45518</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>71</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>72</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>31</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>847</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>42</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>1.17</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>303</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <v>83</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="3">
         <v>59</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="3">
         <v>41</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="3">
         <v>4512</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="3">
         <v>18</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="3">
         <v>34</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="3">
         <v>60.59</v>
       </c>
-      <c r="R3" s="4">
+      <c r="R3" s="3">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
-        <v>1007</v>
-      </c>
-      <c r="C4" s="7">
+      <c r="B4" s="3">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5">
         <v>45519</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>93</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>99</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>13</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>403</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>77</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>6.88</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <v>73</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <v>83</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="3">
         <v>97</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <v>46</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="3">
         <v>8033</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="3">
         <v>81</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="3">
         <v>17</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="3">
         <v>18.78</v>
       </c>
-      <c r="R4" s="4">
+      <c r="R4" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
-        <v>1006</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="B5" s="3">
+        <v>24</v>
+      </c>
+      <c r="C5" s="5">
         <v>45520</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>93</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>83</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>19</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>737</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>34</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>2.04</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>189</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <v>34</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="3">
         <v>91</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="3">
         <v>35</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="3">
         <v>1418</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="3">
         <v>20</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="3">
         <v>24</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="3">
         <v>30.55</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
-        <v>1001</v>
-      </c>
-      <c r="C6" s="7">
+      <c r="B6" s="3">
+        <v>25</v>
+      </c>
+      <c r="C6" s="5">
         <v>45521</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>86</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>80</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>15</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>532</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>16</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>4.04</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>400</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <v>99</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="3">
         <v>22</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="3">
         <v>15</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="3">
         <v>8546</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="3">
         <v>70</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="3">
         <v>7</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="3">
         <v>67.3</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R6" s="3">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
-        <v>1013</v>
-      </c>
-      <c r="C7" s="7">
+      <c r="B7" s="3">
+        <v>26</v>
+      </c>
+      <c r="C7" s="5">
         <v>45522</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>76</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>90</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>30</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>605</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>29</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>2.69</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>228</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <v>2</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="3">
         <v>69</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="3">
         <v>8</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="3">
         <v>7860</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="3">
         <v>31</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="3">
         <v>20</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="3">
         <v>86.83</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7" s="3">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
-        <v>1008</v>
-      </c>
-      <c r="C8" s="7">
+      <c r="B8" s="3">
+        <v>27</v>
+      </c>
+      <c r="C8" s="5">
         <v>45523</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>60</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>50</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>25</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>943</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>52</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>2.52</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <v>453</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <v>62</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="3">
         <v>27</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="3">
         <v>19</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="3">
         <v>1788</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="3">
         <v>33</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="3">
         <v>23</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="3">
         <v>18.86</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
-        <v>1013</v>
-      </c>
-      <c r="C9" s="7">
+      <c r="B9" s="3">
+        <v>28</v>
+      </c>
+      <c r="C9" s="5">
         <v>45524</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>84</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>62</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>46</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>432</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>52</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>6.62</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>324</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <v>68</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="3">
         <v>22</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="3">
         <v>18</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="3">
         <v>9243</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="3">
         <v>25</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="3">
         <v>34</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="3">
         <v>73.17</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="3">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
-        <v>1008</v>
-      </c>
-      <c r="C10" s="7">
+      <c r="B10" s="3">
+        <v>29</v>
+      </c>
+      <c r="C10" s="5">
         <v>45525</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>70</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>52</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>41</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>207</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>19</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>4.34</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <v>365</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <v>65</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="3">
         <v>56</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="3">
         <v>46</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="3">
         <v>3166</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="3">
         <v>63</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="3">
         <v>45</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="3">
         <v>54.27</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
-        <v>1017</v>
-      </c>
-      <c r="C11" s="7">
+      <c r="B11" s="3">
+        <v>30</v>
+      </c>
+      <c r="C11" s="5">
         <v>45526</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>69</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>75</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>28</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>467</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>74</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>2.44</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>171</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <v>87</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="3">
         <v>72</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="3">
         <v>16</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="3">
         <v>7893</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="3">
         <v>72</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="3">
         <v>21</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="3">
         <v>67.849999999999994</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R11" s="3">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4">
-        <v>1010</v>
-      </c>
-      <c r="C12" s="7">
-        <v>45527</v>
-      </c>
-      <c r="D12" s="4">
-        <v>73</v>
-      </c>
-      <c r="E12" s="4">
-        <v>78</v>
-      </c>
-      <c r="F12" s="4">
-        <v>25</v>
-      </c>
-      <c r="G12" s="4">
-        <v>113</v>
-      </c>
-      <c r="H12" s="4">
-        <v>64</v>
-      </c>
-      <c r="I12" s="4">
-        <v>3.01</v>
-      </c>
-      <c r="J12" s="4">
-        <v>59</v>
-      </c>
-      <c r="K12" s="4">
-        <v>55</v>
-      </c>
-      <c r="L12" s="4">
-        <v>65</v>
-      </c>
-      <c r="M12" s="4">
-        <v>49</v>
-      </c>
-      <c r="N12" s="4">
-        <v>9273</v>
-      </c>
-      <c r="O12" s="4">
-        <v>97</v>
-      </c>
-      <c r="P12" s="4">
-        <v>20</v>
-      </c>
-      <c r="Q12" s="4">
-        <v>36.57</v>
-      </c>
-      <c r="R12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4">
-        <v>1008</v>
-      </c>
-      <c r="C13" s="7">
-        <v>45528</v>
-      </c>
-      <c r="D13" s="4">
-        <v>84</v>
-      </c>
-      <c r="E13" s="4">
-        <v>70</v>
-      </c>
-      <c r="F13" s="4">
-        <v>38</v>
-      </c>
-      <c r="G13" s="4">
-        <v>484</v>
-      </c>
-      <c r="H13" s="4">
-        <v>82</v>
-      </c>
-      <c r="I13" s="4">
-        <v>8.17</v>
-      </c>
-      <c r="J13" s="4">
-        <v>423</v>
-      </c>
-      <c r="K13" s="4">
-        <v>43</v>
-      </c>
-      <c r="L13" s="4">
-        <v>51</v>
-      </c>
-      <c r="M13" s="4">
-        <v>37</v>
-      </c>
-      <c r="N13" s="4">
-        <v>8017</v>
-      </c>
-      <c r="O13" s="4">
-        <v>32</v>
-      </c>
-      <c r="P13" s="4">
-        <v>36</v>
-      </c>
-      <c r="Q13" s="4">
-        <v>87.61</v>
-      </c>
-      <c r="R13" s="4">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4">
-        <v>1014</v>
-      </c>
-      <c r="C14" s="7">
-        <v>45529</v>
-      </c>
-      <c r="D14" s="4">
-        <v>71</v>
-      </c>
-      <c r="E14" s="4">
-        <v>96</v>
-      </c>
-      <c r="F14" s="4">
-        <v>17</v>
-      </c>
-      <c r="G14" s="4">
-        <v>654</v>
-      </c>
-      <c r="H14" s="4">
-        <v>22</v>
-      </c>
-      <c r="I14" s="4">
-        <v>9.1</v>
-      </c>
-      <c r="J14" s="4">
-        <v>109</v>
-      </c>
-      <c r="K14" s="4">
-        <v>23</v>
-      </c>
-      <c r="L14" s="4">
-        <v>78</v>
-      </c>
-      <c r="M14" s="4">
-        <v>9</v>
-      </c>
-      <c r="N14" s="4">
-        <v>1074</v>
-      </c>
-      <c r="O14" s="4">
-        <v>28</v>
-      </c>
-      <c r="P14" s="4">
-        <v>10</v>
-      </c>
-      <c r="Q14" s="4">
-        <v>78.87</v>
-      </c>
-      <c r="R14" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4">
-        <v>1019</v>
-      </c>
-      <c r="C15" s="7">
-        <v>45530</v>
-      </c>
-      <c r="D15" s="4">
-        <v>92</v>
-      </c>
-      <c r="E15" s="4">
-        <v>83</v>
-      </c>
-      <c r="F15" s="4">
-        <v>16</v>
-      </c>
-      <c r="G15" s="4">
-        <v>445</v>
-      </c>
-      <c r="H15" s="4">
-        <v>24</v>
-      </c>
-      <c r="I15" s="4">
-        <v>5.63</v>
-      </c>
-      <c r="J15" s="4">
-        <v>201</v>
-      </c>
-      <c r="K15" s="4">
-        <v>12</v>
-      </c>
-      <c r="L15" s="4">
-        <v>43</v>
-      </c>
-      <c r="M15" s="4">
-        <v>38</v>
-      </c>
-      <c r="N15" s="4">
-        <v>3911</v>
-      </c>
-      <c r="O15" s="4">
-        <v>26</v>
-      </c>
-      <c r="P15" s="4">
-        <v>38</v>
-      </c>
-      <c r="Q15" s="4">
-        <v>18.32</v>
-      </c>
-      <c r="R15" s="4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4">
-        <v>1014</v>
-      </c>
-      <c r="C16" s="7">
-        <v>45531</v>
-      </c>
-      <c r="D16" s="4">
-        <v>82</v>
-      </c>
-      <c r="E16" s="4">
-        <v>93</v>
-      </c>
-      <c r="F16" s="4">
-        <v>5</v>
-      </c>
-      <c r="G16" s="4">
-        <v>272</v>
-      </c>
-      <c r="H16" s="4">
-        <v>45</v>
-      </c>
-      <c r="I16" s="4">
-        <v>9.02</v>
-      </c>
-      <c r="J16" s="4">
-        <v>56</v>
-      </c>
-      <c r="K16" s="4">
-        <v>73</v>
-      </c>
-      <c r="L16" s="4">
-        <v>87</v>
-      </c>
-      <c r="M16" s="4">
-        <v>4</v>
-      </c>
-      <c r="N16" s="4">
-        <v>2673</v>
-      </c>
-      <c r="O16" s="4">
-        <v>52</v>
-      </c>
-      <c r="P16" s="4">
-        <v>26</v>
-      </c>
-      <c r="Q16" s="4">
-        <v>51.26</v>
-      </c>
-      <c r="R16" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template Excel/MKT/KPIMKT.xlsx
+++ b/template Excel/MKT/KPIMKT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\MKT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F279B5A-4FCF-40CE-BEB9-B93C6955C62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CBA0F2C-8069-44B8-A429-9BD38EB0A08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="16440" xr2:uid="{50E82B85-8429-48D8-9D87-DA8158DD2C5C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{50E82B85-8429-48D8-9D87-DA8158DD2C5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -515,9 +515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74757DA-3F08-42B0-9455-A57C75932243}">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F24:F25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
